--- a/assets/files/CV13.xlsx
+++ b/assets/files/CV13.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11580" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -311,12 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,1998 +625,1998 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="8.85546875" style="4"/>
-    <col min="14" max="14" width="8.85546875" style="4"/>
-    <col min="20" max="20" width="8.85546875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="3"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="20" max="20" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1801</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>30.653266331658291</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>28.140703517587941</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="4">
         <v>7.0351758793969852</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="4">
         <v>30.653266331658291</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>3.5175879396984926</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="5">
         <v>199</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="4">
         <v>23.280423280423282</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>32.275132275132272</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="4">
         <v>2.1164021164021163</v>
       </c>
-      <c r="L2" s="1">
+      <c r="L2" s="4">
         <v>34.920634920634917</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="5">
         <v>189</v>
       </c>
-      <c r="O2" s="1">
+      <c r="O2" s="4">
         <v>27.061855670103093</v>
       </c>
-      <c r="P2" s="1">
+      <c r="P2" s="4">
         <v>30.154639175257731</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="4">
         <v>4.6391752577319592</v>
       </c>
-      <c r="R2" s="1">
+      <c r="R2" s="4">
         <v>32.731958762886599</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="4">
         <v>5.4123711340206189</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="5">
         <v>388</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1503</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>23.79032258064516</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>34.677419354838712</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="4">
         <v>11.693548387096774</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="4">
         <v>29.838709677419356</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>0</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>248</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="4">
         <v>31.932773109243698</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="4">
         <v>36.134453781512605</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="4">
         <v>12.605042016806722</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="4">
         <v>18.487394957983192</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3" s="4">
         <v>0.84033613445378152</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="5">
         <v>119</v>
       </c>
-      <c r="O3" s="1">
+      <c r="O3" s="4">
         <v>26.430517711171664</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="4">
         <v>35.149863760217983</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="4">
         <v>11.989100817438691</v>
       </c>
-      <c r="R3" s="1">
+      <c r="R3" s="4">
         <v>26.158038147138964</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="4">
         <v>0.27247956403269757</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="5">
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>23.059866962305986</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>33.037694013303771</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <v>3.5476718403547673</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="4">
         <v>36.363636363636367</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>3.9911308203991132</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="5">
         <v>451</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="4">
         <v>10.612244897959183</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="4">
         <v>31.428571428571427</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="4">
         <v>6.5306122448979593</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="4">
         <v>48.163265306122447</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="4">
         <v>3.2653061224489797</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="5">
         <v>245</v>
       </c>
-      <c r="O4" s="1">
+      <c r="O4" s="4">
         <v>18.678160919540229</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="4">
         <v>32.47126436781609</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="4">
         <v>4.5977011494252871</v>
       </c>
-      <c r="R4" s="1">
+      <c r="R4" s="4">
         <v>40.517241379310342</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="4">
         <v>3.735632183908046</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="5">
         <v>696</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>60.759493670886073</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>17.721518987341771</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <v>12.658227848101266</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="4">
         <v>7.5949367088607591</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>1.2658227848101267</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="5">
         <v>79</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="4">
         <v>57.553956834532372</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="4">
         <v>17.985611510791365</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="4">
         <v>14.028776978417266</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="4">
         <v>7.1942446043165464</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="4">
         <v>3.2374100719424459</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="5">
         <v>278</v>
       </c>
-      <c r="O5" s="1">
+      <c r="O5" s="4">
         <v>58.263305322128851</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="4">
         <v>17.927170868347339</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="4">
         <v>13.725490196078431</v>
       </c>
-      <c r="R5" s="1">
+      <c r="R5" s="4">
         <v>7.2829131652661063</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="4">
         <v>2.8011204481792715</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>34.239130434782609</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>26.630434782608695</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <v>8.695652173913043</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="4">
         <v>24.456521739130434</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="4">
         <v>5.9782608695652177</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>184</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="4">
         <v>40.952380952380949</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="4">
         <v>29.523809523809526</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="4">
         <v>8.5714285714285712</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="4">
         <v>1.9047619047619047</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>105</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="4">
         <v>36.678200692041521</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="4">
         <v>27.681660899653981</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="4">
         <v>8.6505190311418687</v>
       </c>
-      <c r="R6" s="1">
+      <c r="R6" s="4">
         <v>22.491349480968857</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="4">
         <v>4.4982698961937713</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>18.974358974358974</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>42.564102564102562</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <v>6.666666666666667</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="4">
         <v>22.564102564102566</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>9.2307692307692299</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="5">
         <v>195</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="4">
         <v>17.370892018779344</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="4">
         <v>45.539906103286384</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="4">
         <v>7.981220657276995</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="4">
         <v>17.370892018779344</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="4">
         <v>11.737089201877934</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="5">
         <v>213</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="4">
         <v>18.137254901960784</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="4">
         <v>44.117647058823529</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="4">
         <v>7.3529411764705879</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="4">
         <v>19.852941176470587</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="4">
         <v>10.53921568627451</v>
       </c>
-      <c r="T7" s="4">
+      <c r="T7" s="5">
         <v>408</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="4">
         <v>6.9767441860465116</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="4">
         <v>23.255813953488371</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="4">
         <v>69.767441860465112</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>0</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="5">
         <v>43</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="4">
         <v>10.091743119266056</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>24.159021406727827</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="4">
         <v>2.1406727828746179</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="4">
         <v>61.467889908256879</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="4">
         <v>2.1406727828746179</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="5">
         <v>327</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="4">
         <v>9.7297297297297298</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="4">
         <v>24.054054054054053</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="4">
         <v>1.8918918918918919</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="4">
         <v>62.432432432432435</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="4">
         <v>1.8918918918918919</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="5">
         <v>370</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="4">
         <v>18.699186991869919</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="4">
         <v>35.772357723577237</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <v>2.845528455284553</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="4">
         <v>37.804878048780488</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>4.8780487804878048</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>246</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="4">
         <v>20.863309352517987</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="4">
         <v>41.007194244604314</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="4">
         <v>2.8776978417266186</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="4">
         <v>32.374100719424462</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="4">
         <v>2.8776978417266186</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="5">
         <v>139</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="4">
         <v>19.480519480519479</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="4">
         <v>37.662337662337663</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="4">
         <v>2.8571428571428572</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="4">
         <v>35.844155844155843</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="4">
         <v>4.1558441558441555</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="5">
         <v>385</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>18.390804597701148</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="4">
         <v>34.482758620689658</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <v>10.344827586206897</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="4">
         <v>36.781609195402297</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="4">
         <v>0</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="5">
         <v>87</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="4">
         <v>33.451957295373667</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>28.82562277580071</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="4">
         <v>11.032028469750889</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="4">
         <v>25.266903914590749</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="4">
         <v>1.4234875444839858</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="5">
         <v>281</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="4">
         <v>29.891304347826086</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="4">
         <v>30.163043478260871</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="4">
         <v>10.869565217391305</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="4">
         <v>27.989130434782609</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="4">
         <v>1.0869565217391304</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="5">
         <v>368</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="4">
         <v>10.552763819095478</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="4">
         <v>8.0402010050251249</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <v>4.5226130653266328</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="4">
         <v>75.37688442211055</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>1.5075376884422111</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>199</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="4">
         <v>25.69832402234637</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="4">
         <v>31.284916201117319</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="4">
         <v>5.5865921787709496</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="4">
         <v>35.754189944134076</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11" s="4">
         <v>1.6759776536312849</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N11" s="5">
         <v>179</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="4">
         <v>17.724867724867725</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="4">
         <v>19.047619047619047</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="4">
         <v>5.0264550264550261</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="4">
         <v>56.613756613756614</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="4">
         <v>1.5873015873015872</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="4">
         <v>11.061946902654867</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="4">
         <v>42.477876106194692</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <v>0</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="4">
         <v>40.26548672566372</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>6.1946902654867255</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>226</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="4">
         <v>12.337662337662337</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>55.844155844155843</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="4">
         <v>0.64935064935064934</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="4">
         <v>24.025974025974026</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12" s="4">
         <v>7.1428571428571432</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <v>154</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12" s="4">
         <v>11.578947368421053</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="4">
         <v>47.89473684210526</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="4">
         <v>0.26315789473684209</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="4">
         <v>33.684210526315788</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="4">
         <v>6.5789473684210522</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="4">
         <v>12.173913043478262</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="4">
         <v>26.086956521739129</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <v>2.6086956521739131</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="4">
         <v>47.391304347826086</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>11.739130434782609</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <v>230</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="4">
         <v>16.363636363636363</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="4">
         <v>25.454545454545453</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="L13" s="1">
+      <c r="L13" s="4">
         <v>52.727272727272727</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13" s="4">
         <v>0.90909090909090906</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="5">
         <v>110</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13" s="4">
         <v>13.529411764705882</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="4">
         <v>25.882352941176471</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="4">
         <v>3.2352941176470589</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="4">
         <v>49.117647058823529</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="4">
         <v>8.235294117647058</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="5">
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="4">
         <v>18.699186991869919</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="4">
         <v>30.894308943089431</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <v>8.9430894308943092</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="4">
         <v>35.772357723577237</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="4">
         <v>5.691056910569106</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="5">
         <v>123</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="4">
         <v>14.342629482071713</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>28.685258964143426</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="4">
         <v>4.7808764940239046</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="4">
         <v>44.621513944223111</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14" s="4">
         <v>7.569721115537849</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="5">
         <v>251</v>
       </c>
-      <c r="O14" s="1">
+      <c r="O14" s="4">
         <v>15.775401069518717</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="4">
         <v>29.411764705882351</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="4">
         <v>6.1497326203208553</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="4">
         <v>41.711229946524064</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="4">
         <v>6.9518716577540109</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="5">
         <v>374</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="4">
         <v>6.25</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="4">
         <v>35.416666666666664</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <v>0</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="4">
         <v>54.166666666666664</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="4">
         <v>4.166666666666667</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="4">
         <v>11.044776119402986</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="4">
         <v>51.343283582089555</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="4">
         <v>0.89552238805970152</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="4">
         <v>35.223880597014926</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15" s="4">
         <v>1.4925373134328359</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="5">
         <v>335</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15" s="4">
         <v>10.443864229765014</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="4">
         <v>49.347258485639685</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="4">
         <v>0.78328981723237601</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="4">
         <v>37.59791122715405</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="4">
         <v>1.8276762402088773</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="4">
         <v>50.666666666666664</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>20</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <v>24</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="4">
         <v>4.666666666666667</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="4">
         <v>0.66666666666666663</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>150</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="4">
         <v>36.016949152542374</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>14.830508474576272</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="4">
         <v>47.457627118644069</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L16" s="4">
         <v>1.6949152542372881</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="4">
         <v>0</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="5">
         <v>236</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16" s="4">
         <v>41.709844559585491</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="4">
         <v>16.839378238341968</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="4">
         <v>38.3419689119171</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="4">
         <v>2.849740932642487</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="4">
         <v>0.25906735751295334</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="5">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="4">
         <v>0</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>0</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="4">
         <v>20.789473684210527</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="4">
         <v>1.8421052631578947</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L17" s="4">
         <v>65.526315789473685</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17" s="4">
         <v>1.3157894736842106</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="5">
         <v>380</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17" s="4">
         <v>10.526315789473685</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="4">
         <v>20.789473684210527</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="4">
         <v>1.8421052631578947</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R17" s="4">
         <v>65.526315789473685</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="4">
         <v>1.3157894736842106</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="5">
         <v>380</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="4">
         <v>23.076923076923077</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>23.076923076923077</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <v>5.1282051282051286</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="4">
         <v>35.897435897435898</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="4">
         <v>12.820512820512821</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>39</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18" s="4">
         <v>20.588235294117649</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>32.647058823529413</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="4">
         <v>1.1764705882352942</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L18" s="4">
         <v>41.176470588235297</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18" s="4">
         <v>4.4117647058823533</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="5">
         <v>340</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18" s="4">
         <v>20.844327176781004</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="4">
         <v>31.662269129287598</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="4">
         <v>1.5831134564643798</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R18" s="4">
         <v>40.633245382585748</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="4">
         <v>5.2770448548812663</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="5">
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="4">
         <v>2.8735632183908044</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="4">
         <v>26.436781609195403</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <v>1.1494252873563218</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="4">
         <v>66.666666666666671</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="4">
         <v>2.8735632183908044</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>174</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19" s="4">
         <v>12.021857923497267</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="4">
         <v>52.459016393442624</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="4">
         <v>0</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L19" s="4">
         <v>35.519125683060111</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19" s="4">
         <v>0</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="5">
         <v>183</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19" s="4">
         <v>7.5630252100840334</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="4">
         <v>39.775910364145659</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="4">
         <v>0.56022408963585435</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R19" s="4">
         <v>50.700280112044815</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="4">
         <v>1.4005602240896358</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="5">
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="4">
         <v>25</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="4">
         <v>28.125</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <v>0</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="4">
         <v>43.75</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="4">
         <v>3.125</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>32</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20" s="4">
         <v>13.550135501355014</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>29.539295392953928</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="4">
         <v>3.5230352303523036</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L20" s="4">
         <v>51.761517615176153</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20" s="4">
         <v>1.6260162601626016</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="5">
         <v>369</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20" s="4">
         <v>14.463840399002494</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="4">
         <v>29.42643391521197</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="4">
         <v>3.2418952618453867</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R20" s="4">
         <v>51.122194513715712</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="4">
         <v>1.745635910224439</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="5">
         <v>401</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="4">
         <v>23.152709359605911</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="4">
         <v>33.004926108374384</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <v>9.8522167487684733</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="4">
         <v>29.55665024630542</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="4">
         <v>4.4334975369458132</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="5">
         <v>203</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21" s="4">
         <v>28.333333333333332</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>31.666666666666668</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="4">
         <v>6.1111111111111107</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L21" s="4">
         <v>32.222222222222221</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21" s="4">
         <v>1.6666666666666667</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="5">
         <v>180</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21" s="4">
         <v>25.587467362924283</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="4">
         <v>32.375979112271537</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="4">
         <v>8.0939947780678843</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R21" s="4">
         <v>30.809399477806789</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="4">
         <v>3.133159268929504</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="4">
         <v>31.213872832369944</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="4">
         <v>19.653179190751445</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <v>5.7803468208092488</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="4">
         <v>39.306358381502889</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="4">
         <v>4.0462427745664744</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="5">
         <v>173</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="4">
         <v>19.024390243902438</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>27.317073170731707</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="4">
         <v>7.3170731707317076</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L22" s="4">
         <v>42.926829268292686</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22" s="4">
         <v>3.4146341463414633</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="5">
         <v>205</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22" s="4">
         <v>24.603174603174605</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="4">
         <v>23.80952380952381</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>6.6137566137566139</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R22" s="4">
         <v>41.269841269841272</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S22" s="4">
         <v>3.7037037037037037</v>
       </c>
-      <c r="T22" s="4">
+      <c r="T22" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="4">
         <v>25.531914893617021</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="4">
         <v>36.702127659574465</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <v>9.5744680851063837</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="4">
         <v>22.340425531914892</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="4">
         <v>5.8510638297872344</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="5">
         <v>188</v>
       </c>
-      <c r="I23" s="1">
+      <c r="I23" s="4">
         <v>26.153846153846153</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="4">
         <v>34.871794871794869</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="4">
         <v>7.6923076923076925</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="4">
         <v>27.179487179487179</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="4">
         <v>4.1025641025641022</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="5">
         <v>195</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O23" s="4">
         <v>25.848563968668408</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="4">
         <v>35.770234986945169</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>8.6161879895561366</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R23" s="4">
         <v>24.804177545691907</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S23" s="4">
         <v>4.9608355091383816</v>
       </c>
-      <c r="T23" s="4">
+      <c r="T23" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="4">
         <v>0.3125</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="4">
         <v>3.75</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <v>1.875</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="4">
         <v>68.75</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G24" s="4">
         <v>25.3125</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="5">
         <v>320</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I24" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="4">
         <v>22.950819672131146</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="4">
         <v>1.639344262295082</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="4">
         <v>62.295081967213115</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="4">
         <v>6.557377049180328</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="5">
         <v>61</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O24" s="4">
         <v>1.3123359580052494</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="4">
         <v>6.8241469816272966</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>1.837270341207349</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R24" s="4">
         <v>67.71653543307086</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S24" s="4">
         <v>22.309711286089239</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="5">
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>19.892473118279568</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>36.55913978494624</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <v>8.6021505376344081</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>30.107526881720432</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G25" s="4">
         <v>4.838709677419355</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="5">
         <v>186</v>
       </c>
-      <c r="I25" s="1">
+      <c r="I25" s="4">
         <v>34.375</v>
       </c>
-      <c r="J25" s="1">
+      <c r="J25" s="4">
         <v>22.916666666666668</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="4">
         <v>9.8958333333333339</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L25" s="4">
         <v>25.520833333333332</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="4">
         <v>7.291666666666667</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="5">
         <v>192</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O25" s="4">
         <v>27.24867724867725</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="4">
         <v>29.62962962962963</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>9.2592592592592595</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R25" s="4">
         <v>27.777777777777779</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S25" s="4">
         <v>6.0846560846560847</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="5">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="4">
         <v>21.006944444444443</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>50.173611111111114</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <v>11.111111111111111</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>14.930555555555555</v>
       </c>
-      <c r="G26" s="1">
+      <c r="G26" s="4">
         <v>2.7777777777777777</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="5">
         <v>576</v>
       </c>
-      <c r="I26" s="1">
+      <c r="I26" s="4">
         <v>21.111111111111111</v>
       </c>
-      <c r="J26" s="1">
+      <c r="J26" s="4">
         <v>32.518518518518519</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="4">
         <v>12.222222222222221</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="4">
         <v>28.592592592592592</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="4">
         <v>5.5555555555555554</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="5">
         <v>1350</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>21.079958463136034</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="4">
         <v>37.798546209761163</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>11.889927310488059</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R26" s="4">
         <v>24.5067497403946</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S26" s="4">
         <v>4.7248182762201454</v>
       </c>
-      <c r="T26" s="4">
+      <c r="T26" s="5">
         <v>1926</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="4">
         <v>63.235294117647058</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>30.882352941176471</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>2.9411764705882355</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="4">
         <v>0</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="5">
         <v>136</v>
       </c>
-      <c r="I27" s="1">
+      <c r="I27" s="4">
         <v>56.25</v>
       </c>
-      <c r="J27" s="1">
+      <c r="J27" s="4">
         <v>24.242424242424242</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="4">
         <v>4.5454545454545459</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="4">
         <v>12.689393939393939</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="4">
         <v>2.2727272727272729</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="5">
         <v>528</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O27" s="4">
         <v>57.680722891566262</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P27" s="4">
         <v>25.602409638554217</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>4.2168674698795181</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R27" s="4">
         <v>10.69277108433735</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S27" s="4">
         <v>1.8072289156626506</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="5">
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="4">
         <v>21.804511278195488</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="4">
         <v>43.609022556390975</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="4">
         <v>4.511278195488722</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="4">
         <v>27.06766917293233</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="4">
         <v>3.007518796992481</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="5">
         <v>133</v>
       </c>
-      <c r="I28" s="1">
+      <c r="I28" s="4">
         <v>24.083769633507853</v>
       </c>
-      <c r="J28" s="1">
+      <c r="J28" s="4">
         <v>32.460732984293195</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="4">
         <v>4.1884816753926701</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L28" s="4">
         <v>28.795811518324609</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="4">
         <v>10.471204188481675</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="5">
         <v>191</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O28" s="4">
         <v>23.148148148148149</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P28" s="4">
         <v>37.037037037037038</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>4.3209876543209873</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R28" s="4">
         <v>28.086419753086421</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S28" s="4">
         <v>7.4074074074074074</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="5">
         <v>324</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="4">
         <v>15.584415584415584</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>38.095238095238095</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="4">
         <v>4.329004329004329</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>38.095238095238095</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="4">
         <v>3.8961038961038961</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="5">
         <v>231</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="4">
         <v>18.032786885245901</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="4">
         <v>15.573770491803279</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="4">
         <v>2.459016393442623</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="4">
         <v>55.73770491803279</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="4">
         <v>8.1967213114754092</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="5">
         <v>122</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O29" s="4">
         <v>16.430594900849858</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P29" s="4">
         <v>30.311614730878187</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>3.6827195467422098</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R29" s="4">
         <v>44.192634560906512</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S29" s="4">
         <v>5.3824362606232299</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="5">
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="4">
         <v>31.612903225806452</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="4">
         <v>25.806451612903224</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="4">
         <v>10.96774193548387</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="4">
         <v>27.096774193548388</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="4">
         <v>4.5161290322580649</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="5">
         <v>155</v>
       </c>
-      <c r="I30" s="1">
+      <c r="I30" s="4">
         <v>23.706896551724139</v>
       </c>
-      <c r="J30" s="1">
+      <c r="J30" s="4">
         <v>42.241379310344826</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="4">
         <v>6.8965517241379306</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L30" s="4">
         <v>23.706896551724139</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="4">
         <v>3.4482758620689653</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="5">
         <v>232</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O30" s="4">
         <v>26.873385012919897</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="4">
         <v>35.65891472868217</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>8.5271317829457356</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R30" s="4">
         <v>25.064599483204134</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S30" s="4">
         <v>3.8759689922480618</v>
       </c>
-      <c r="T30" s="4">
+      <c r="T30" s="5">
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="4">
         <v>18.918918918918919</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="4">
         <v>37.837837837837839</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="4">
         <v>2.7027027027027026</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="4">
         <v>38.738738738738739</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="4">
         <v>1.8018018018018018</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="5">
         <v>111</v>
       </c>
-      <c r="I31" s="1">
+      <c r="I31" s="4">
         <v>23.897058823529413</v>
       </c>
-      <c r="J31" s="1">
+      <c r="J31" s="4">
         <v>34.558823529411768</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="4">
         <v>2.5735294117647061</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L31" s="4">
         <v>34.926470588235297</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="4">
         <v>4.0441176470588234</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="5">
         <v>272</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O31" s="4">
         <v>22.454308093994779</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P31" s="4">
         <v>35.509138381201048</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>2.6109660574412534</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R31" s="4">
         <v>36.031331592689298</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S31" s="4">
         <v>3.3942558746736293</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="4">
         <v>33.333333333333336</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="4">
         <v>0</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="4">
         <v>0</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="4">
         <v>66.666666666666671</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="4">
         <v>0</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="5">
         <v>15</v>
       </c>
-      <c r="I32" s="1">
+      <c r="I32" s="4">
         <v>23.26869806094183</v>
       </c>
-      <c r="J32" s="1">
+      <c r="J32" s="4">
         <v>34.072022160664822</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="4">
         <v>5.54016620498615</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L32" s="4">
         <v>32.686980609418285</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="4">
         <v>4.43213296398892</v>
       </c>
-      <c r="N32" s="4">
+      <c r="N32" s="5">
         <v>361</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O32" s="4">
         <v>23.670212765957448</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="4">
         <v>32.712765957446805</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>5.3191489361702127</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R32" s="4">
         <v>34.042553191489361</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S32" s="4">
         <v>4.2553191489361701</v>
       </c>
-      <c r="T32" s="4">
+      <c r="T32" s="5">
         <v>376</v>
       </c>
     </row>
